--- a/src/main/resources/template_exports/template_server_list_for_export.xlsx
+++ b/src/main/resources/template_exports/template_server_list_for_export.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\poiAndJxls\src\main\resources\template_exports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\poi-jxls\src\main\resources\template_exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AC31BE-4B0A-41D0-B936-97E1A4EE3B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E089F5-73E5-4A5A-964C-21732A8C6AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F33266DB-5DB2-474F-8088-4B791CAAF5B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F33266DB-5DB2-474F-8088-4B791CAAF5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>ADMIN:</t>
+          <t>TRUONGTN:</t>
         </r>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>ADMIN:</t>
+          <t>TRUONGTN:</t>
         </r>
         <r>
           <rPr>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F40540-E94A-4819-8B0F-4F635C573AF0}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
